--- a/loss_compare.xlsx
+++ b/loss_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles88\Desktop\台大深度學習之應用\ADL-HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0339B0C-C845-47E4-8669-C712EAB379CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9275DD82-0732-423A-99A0-D46E0AD7F50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2BBA265-9B56-4F5D-A1C1-C9D07BD320FE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>EM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre-trained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,11 +116,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,24 +247,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.51070000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2616</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.37809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33289999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4200000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6386000000000001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1283,6 +1277,1873 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pre-trained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$51:$A$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="126"/>
+                <c:pt idx="0">
+                  <c:v>0.51070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6386000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C5E-4BC3-9BE4-5C0841BDDEE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$51:$B$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="126"/>
+                <c:pt idx="0">
+                  <c:v>4.8887271881103498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9474573135375897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5024957656860298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7552604675292898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1462304592132502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0842642784118599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.03253078460693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C5E-4BC3-9BE4-5C0841BDDEE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$51:$C$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="126"/>
+                <c:pt idx="0">
+                  <c:v>5.4062256813049299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5456657409667898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7326753139495801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2964177131652797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3526582717895499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1359658241271902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3286552429199201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3699440956115696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2969121932983398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1563606262206996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9893376827239901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1163072586059499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7951860427856401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7119994163513099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5225477218627903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0561056137084899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6066718101501403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6797618865966797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6570358276367099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6111106872558496</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6447277069091797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3522233963012598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3085126876831001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0180969238281201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6639008522033598</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1955902576446502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1596722602844198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1182184219360298</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0560526847839302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.97768831253051</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0504217147827104</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9591212272643999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7456395626068102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8508045673370299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9106187820434499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6567306518554599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6501088142395002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2517223358154297</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.86073541641235</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.06060719490051</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8092725276946999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8596732616424498</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9801239967346098</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8984880447387602</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5924797058105402</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.9515419006347599</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4748449325561501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9538373947143499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.6189184188842698</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8845248222351001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.6825609207153298</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.2268981933593701</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8699027299880899</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8340783119201598</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8140583038329998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9388636350631701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2305123805999698</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0109996795654199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.602691769599914</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.16868484020233</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.88438415527343</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5484764575958201</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.15713918209075</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.69025826454162</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.79851603507995605</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.88905429840087</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.63985198736190796</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.56394517421722401</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99990290403366</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5296449661254801</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5386888980865401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8838095664978001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.349714875221252</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.95781326293945301</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.07058525085449</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.30357992649078303</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.89925187826156605</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.43089228868484403</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.3205256462097101</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.64761668443679798</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.62145078182220403</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.3753829598426805E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.24536594748497001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.32395708560943598</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.75453913211822499</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86060225963592496</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.91934382915496</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.1530649662017801E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.41418412327766402</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.108395598828792</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.25019952654838501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.68283426761627197</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.8233324885368299E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.58149236440658503</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.80760490894317605</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.38483801856637E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.117086164653301</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.4128781408071501E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.0258340984582901E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.7664604187011705E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.8327994346618597E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.133800894021987</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3165032863616899</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.3214437533169901E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.108753450214862</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.0787003040313707E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.15643609315156E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.1262131854891701E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.4406969789415598E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.43103107810020402</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.84089374542236295</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.4253662973642297E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.0886918529868102E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.6202036931645101E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.8437164039350997E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.4997590379789396E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4995229139458301E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.0874781552702102E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.37238597869873</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.7336786985397297E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.58400577493011E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.3751602091360799E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.8177271643653501E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.9532573535107E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.79683498572558E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.27408439968712E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2C5E-4BC3-9BE4-5C0841BDDEE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="561085359"/>
+        <c:axId val="561085775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="561085359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>stride</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561085775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="561085775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>loss</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> value</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561085359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Exact</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> Match metric</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pre-trained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$51:$E$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="126"/>
+                <c:pt idx="0">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B81-4ADF-A8C9-3B3557CA1EB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$F$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$51:$F$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="126"/>
+                <c:pt idx="0">
+                  <c:v>2.3595879029577903E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9245596543702203E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3233632436025201E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2509139248919902E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4170820870721101E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2811565304087699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B81-4ADF-A8C9-3B3557CA1EB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$51:$G$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="126"/>
+                <c:pt idx="0">
+                  <c:v>1.7613825191093301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1571950814223898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3868394815553304E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1542040545031494E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9518112329677601E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3173811897640401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5167829843801898E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2479228979727401E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3476237952808198E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8823529411764705E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1452309737454298E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4111000332336308E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0425390495181104E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8069125955466898E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9730807577268201E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0063143901628409E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6075108009305387E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10568295114656</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.110667996011964</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.112994350282485</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.124626121635094</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.124958457959454</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12828182120305701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14190761050182701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14290461947490798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14091060152874701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15686274509803899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16350947158524398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15719508142239899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.168162180126287</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18644067796610098</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18411432369557901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19541375872382802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.20671319375207697</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21568627450980302</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.227982718511133</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23928215353938101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.24094383516118301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25423728813559299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26553672316384103</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.285476902625456</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30807577268195402</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.33000997008973004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.33964772349617806</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.35393818544366901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.39647723496178106</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.380192755068128</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.40378863409770605</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.453306746427384</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.470920571618477</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50116317713526004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52708541043536006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54336989032901206</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.56098371552010595</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58790295779328605</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57394483217015602</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.61482220006646704</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63808574277168395</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.66134928547690197</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.68926553672316304</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69790628115653008</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.714523097374543</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.74642738451312696</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.73712196743104008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.7806580259222331</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.78697241608507795</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79860418743768602</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.81954137587238196</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83615819209039499</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.84579594549684201</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.86640079760717803</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.82984380192755003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.870056497175141</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.88102359587902901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.89066134928547702</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89830508474576209</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.91193087404453299</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91591890993685598</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.91359255566633391</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.93353273512794899</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93220338983050799</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.94383516118311706</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.943170488534396</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.94948487869724107</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.95613160518444607</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95513459621136509</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.94250581588567606</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.96111665004985003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.96643403123961413</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.96410767696909205</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.96942505815885593</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.96842804918577596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.97673645729478198</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.97706879361914212</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.97274842140245898</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98138916583582503</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.982386174808906</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97706879361914212</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.979727484214024</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.98138916583582503</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.98438019275506805</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.98870056497175096</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.982386174808906</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.98836822864739104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.98969757394483193</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.98870056497175096</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.9906945829179119</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.9906945829179119</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.99202392821535401</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.99302093718843398</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.98670654702558913</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.99368560983715504</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.99268860086407407</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.99268860086407407</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.99302093718843398</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.99268860086407407</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.99302093718843398</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.99302093718843398</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.99268860086407407</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.99401794616151506</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.99401794616151506</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.99401794616151506</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.99401794616151506</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.99401794616151506</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.99401794616151506</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.99401794616151506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6B81-4ADF-A8C9-3B3557CA1EB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="661326991"/>
+        <c:axId val="661329487"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="661326991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>stride</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661329487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661329487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>EM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> value</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661326991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1363,6 +3224,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1880,6 +3821,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2464,6 +5437,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>193222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1313091</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A95E0B-FD06-425A-83D8-CE753BAC9699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1643990</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541811</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>48241</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A7C0DA-356E-4F25-8646-0833E857155F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2769,52 +5814,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79BC66-B2EB-46C7-B86F-9BAAFA1CD60D}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="35.25" customWidth="1"/>
     <col min="5" max="5" width="35.625" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.51070000000000004</v>
-      </c>
       <c r="B3">
         <v>1.21423828601837</v>
       </c>
@@ -2830,9 +5874,6 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.2616</v>
-      </c>
       <c r="B4">
         <v>0.31172841787338201</v>
       </c>
@@ -2843,14 +5884,11 @@
         <v>83.217015619807199</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F26" si="0">E4*0.01</f>
+        <f t="shared" ref="F4:F25" si="0">E4*0.01</f>
         <v>0.832170156198072</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.37809999999999999</v>
-      </c>
       <c r="B5">
         <v>0.85600626468658403</v>
       </c>
@@ -2866,9 +5904,6 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.33289999999999997</v>
-      </c>
       <c r="B6">
         <v>0.59980475902557295</v>
       </c>
@@ -2884,9 +5919,6 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>9.4200000000000006E-2</v>
-      </c>
       <c r="B7">
         <v>0.61126530170440596</v>
       </c>
@@ -2902,9 +5934,6 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.6386000000000001</v>
-      </c>
       <c r="B8">
         <v>0.4583740234375</v>
       </c>
@@ -3123,10 +6152,1658 @@
         <v>0.99135925556663296</v>
       </c>
     </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="B51">
+        <v>4.8887271881103498</v>
+      </c>
+      <c r="C51">
+        <v>5.4062256813049299</v>
+      </c>
+      <c r="E51">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F51">
+        <f>I51*0.01</f>
+        <v>2.3595879029577903E-2</v>
+      </c>
+      <c r="G51">
+        <f>J51*0.01</f>
+        <v>1.7613825191093301E-2</v>
+      </c>
+      <c r="I51">
+        <v>2.3595879029577902</v>
+      </c>
+      <c r="J51">
+        <v>1.76138251910933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.2616</v>
+      </c>
+      <c r="B52">
+        <v>4.9474573135375897</v>
+      </c>
+      <c r="C52">
+        <v>4.5456657409667898</v>
+      </c>
+      <c r="E52">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:F56" si="1">I52*0.01</f>
+        <v>2.9245596543702203E-2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:G115" si="2">J52*0.01</f>
+        <v>3.1571950814223898E-2</v>
+      </c>
+      <c r="I52">
+        <v>2.9245596543702201</v>
+      </c>
+      <c r="J52">
+        <v>3.1571950814223899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.37809999999999999</v>
+      </c>
+      <c r="B53">
+        <v>4.5024957656860298</v>
+      </c>
+      <c r="C53">
+        <v>3.7326753139495801</v>
+      </c>
+      <c r="E53">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>3.3233632436025201E-2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>4.3868394815553304E-2</v>
+      </c>
+      <c r="I53">
+        <v>3.32336324360252</v>
+      </c>
+      <c r="J53">
+        <v>4.38683948155533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="B54">
+        <v>4.7552604675292898</v>
+      </c>
+      <c r="C54">
+        <v>4.2964177131652797</v>
+      </c>
+      <c r="E54">
+        <v>0.76</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>5.2509139248919902E-2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>4.1542040545031494E-2</v>
+      </c>
+      <c r="I54">
+        <v>5.2509139248919903</v>
+      </c>
+      <c r="J54">
+        <v>4.1542040545031496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="B55">
+        <v>3.1462304592132502</v>
+      </c>
+      <c r="C55">
+        <v>4.3526582717895499</v>
+      </c>
+      <c r="E55">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>5.4170820870721101E-2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>4.9518112329677601E-2</v>
+      </c>
+      <c r="I55">
+        <v>5.4170820870721101</v>
+      </c>
+      <c r="J55">
+        <v>4.9518112329677599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.6386000000000001</v>
+      </c>
+      <c r="B56">
+        <v>4.0842642784118599</v>
+      </c>
+      <c r="C56">
+        <v>5.1359658241271902</v>
+      </c>
+      <c r="E56">
+        <v>0.78</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>6.2811565304087699E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>5.3173811897640401E-2</v>
+      </c>
+      <c r="I56">
+        <v>6.2811565304087704</v>
+      </c>
+      <c r="J56">
+        <v>5.3173811897640402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>4.03253078460693</v>
+      </c>
+      <c r="C57">
+        <v>4.3286552429199201</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>5.5167829843801898E-2</v>
+      </c>
+      <c r="I57">
+        <v>6.6134928547690199</v>
+      </c>
+      <c r="J57">
+        <v>5.5167829843801899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>5.3699440956115696</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>6.2479228979727401E-2</v>
+      </c>
+      <c r="J58">
+        <v>6.2479228979727397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>4.2969121932983398</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>6.3476237952808198E-2</v>
+      </c>
+      <c r="J59">
+        <v>6.3476237952808203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>5.1563606262206996</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="J60">
+        <v>5.8823529411764701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>3.9893376827239901</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>7.1452309737454298E-2</v>
+      </c>
+      <c r="J61">
+        <v>7.1452309737454298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>4.1163072586059499</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>7.4111000332336308E-2</v>
+      </c>
+      <c r="J62">
+        <v>7.4111000332336303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>3.7951860427856401</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>8.0425390495181104E-2</v>
+      </c>
+      <c r="J63">
+        <v>8.0425390495181102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>2.7119994163513099</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>8.8069125955466898E-2</v>
+      </c>
+      <c r="J64">
+        <v>8.8069125955466898</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>4.5225477218627903</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>8.9730807577268201E-2</v>
+      </c>
+      <c r="J65">
+        <v>8.9730807577268195</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>4.0561056137084899</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>9.0063143901628409E-2</v>
+      </c>
+      <c r="J66">
+        <v>9.0063143901628404</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>4.6066718101501403</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>8.6075108009305387E-2</v>
+      </c>
+      <c r="J67">
+        <v>8.6075108009305392</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>5.6797618865966797</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>0.10568295114656</v>
+      </c>
+      <c r="J68">
+        <v>10.568295114655999</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>3.6570358276367099</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>0.110667996011964</v>
+      </c>
+      <c r="J69">
+        <v>11.066799601196401</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>4.6111106872558496</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>0.112994350282485</v>
+      </c>
+      <c r="J70">
+        <v>11.299435028248499</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>4.6447277069091797</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>0.124626121635094</v>
+      </c>
+      <c r="J71">
+        <v>12.4626121635094</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>4.3522233963012598</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>0.124958457959454</v>
+      </c>
+      <c r="J72">
+        <v>12.495845795945399</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>4.3085126876831001</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>0.12828182120305701</v>
+      </c>
+      <c r="J73">
+        <v>12.8281821203057</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>3.0180969238281201</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>0.14190761050182701</v>
+      </c>
+      <c r="J74">
+        <v>14.190761050182701</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>3.6639008522033598</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>0.14290461947490798</v>
+      </c>
+      <c r="J75">
+        <v>14.290461947490799</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>2.1955902576446502</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>0.14091060152874701</v>
+      </c>
+      <c r="J76">
+        <v>14.0910601528747</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>3.1596722602844198</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>0.15686274509803899</v>
+      </c>
+      <c r="J77">
+        <v>15.6862745098039</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>2.1182184219360298</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>0.16350947158524398</v>
+      </c>
+      <c r="J78">
+        <v>16.350947158524399</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>3.0560526847839302</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>0.15719508142239899</v>
+      </c>
+      <c r="J79">
+        <v>15.719508142239899</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>3.97768831253051</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>0.168162180126287</v>
+      </c>
+      <c r="J80">
+        <v>16.816218012628699</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>4.0504217147827104</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>0.18644067796610098</v>
+      </c>
+      <c r="J81">
+        <v>18.644067796610098</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>2.9591212272643999</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>0.18411432369557901</v>
+      </c>
+      <c r="J82">
+        <v>18.4114323695579</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>2.7456395626068102</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>0.19541375872382802</v>
+      </c>
+      <c r="J83">
+        <v>19.541375872382801</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>3.8508045673370299</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>0.20671319375207697</v>
+      </c>
+      <c r="J84">
+        <v>20.671319375207698</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>3.9106187820434499</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>0.21568627450980302</v>
+      </c>
+      <c r="J85">
+        <v>21.568627450980301</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>3.6567306518554599</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>0.227982718511133</v>
+      </c>
+      <c r="J86">
+        <v>22.798271851113299</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>3.6501088142395002</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>0.23928215353938101</v>
+      </c>
+      <c r="J87">
+        <v>23.9282153539381</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>4.2517223358154297</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>0.24094383516118301</v>
+      </c>
+      <c r="J88">
+        <v>24.094383516118299</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>3.86073541641235</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>0.25423728813559299</v>
+      </c>
+      <c r="J89">
+        <v>25.4237288135593</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>3.06060719490051</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>0.26553672316384103</v>
+      </c>
+      <c r="J90">
+        <v>26.553672316384102</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>1.8092725276946999</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>0.285476902625456</v>
+      </c>
+      <c r="J91">
+        <v>28.547690262545601</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>3.8596732616424498</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>0.30807577268195402</v>
+      </c>
+      <c r="J92">
+        <v>30.807577268195399</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>3.9801239967346098</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>0.33000997008973004</v>
+      </c>
+      <c r="J93">
+        <v>33.000997008973002</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>3.8984880447387602</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>0.33964772349617806</v>
+      </c>
+      <c r="J94">
+        <v>33.964772349617803</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>2.5924797058105402</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>0.35393818544366901</v>
+      </c>
+      <c r="J95">
+        <v>35.393818544366901</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>2.9515419006347599</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>0.39647723496178106</v>
+      </c>
+      <c r="J96">
+        <v>39.647723496178102</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>2.4748449325561501</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>0.380192755068128</v>
+      </c>
+      <c r="J97">
+        <v>38.019275506812797</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>1.9538373947143499</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>0.40378863409770605</v>
+      </c>
+      <c r="J98">
+        <v>40.378863409770602</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>2.6189184188842698</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>0.453306746427384</v>
+      </c>
+      <c r="J99">
+        <v>45.330674642738401</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>1.8845248222351001</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>0.470920571618477</v>
+      </c>
+      <c r="J100">
+        <v>47.092057161847698</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>2.6825609207153298</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>0.50116317713526004</v>
+      </c>
+      <c r="J101">
+        <v>50.116317713526001</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>2.2268981933593701</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>0.52708541043536006</v>
+      </c>
+      <c r="J102">
+        <v>52.708541043536002</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>1.8699027299880899</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>0.54336989032901206</v>
+      </c>
+      <c r="J103">
+        <v>54.336989032901201</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>2.8340783119201598</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>0.56098371552010595</v>
+      </c>
+      <c r="J104">
+        <v>56.098371552010597</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>2.8140583038329998</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>0.58790295779328605</v>
+      </c>
+      <c r="J105">
+        <v>58.790295779328602</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>1.9388636350631701</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>0.57394483217015602</v>
+      </c>
+      <c r="J106">
+        <v>57.394483217015598</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>2.2305123805999698</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>0.61482220006646704</v>
+      </c>
+      <c r="J107">
+        <v>61.482220006646699</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>2.0109996795654199</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>0.63808574277168395</v>
+      </c>
+      <c r="J108">
+        <v>63.808574277168397</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>0.602691769599914</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>0.66134928547690197</v>
+      </c>
+      <c r="J109">
+        <v>66.134928547690194</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>1.16868484020233</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>0.68926553672316304</v>
+      </c>
+      <c r="J110">
+        <v>68.926553672316302</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>2.88438415527343</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>0.69790628115653008</v>
+      </c>
+      <c r="J111">
+        <v>69.790628115653007</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>1.5484764575958201</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>0.714523097374543</v>
+      </c>
+      <c r="J112">
+        <v>71.4523097374543</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>1.15713918209075</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>0.74642738451312696</v>
+      </c>
+      <c r="J113">
+        <v>74.642738451312695</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>1.69025826454162</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>0.73712196743104008</v>
+      </c>
+      <c r="J114">
+        <v>73.712196743104002</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>0.79851603507995605</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>0.7806580259222331</v>
+      </c>
+      <c r="J115">
+        <v>78.065802592223307</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>1.88905429840087</v>
+      </c>
+      <c r="G116">
+        <f t="shared" ref="G116:G176" si="3">J116*0.01</f>
+        <v>0.78697241608507795</v>
+      </c>
+      <c r="J116">
+        <v>78.697241608507795</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>0.63985198736190796</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="3"/>
+        <v>0.79860418743768602</v>
+      </c>
+      <c r="J117">
+        <v>79.860418743768605</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>0.56394517421722401</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="3"/>
+        <v>0.81954137587238196</v>
+      </c>
+      <c r="J118">
+        <v>81.954137587238193</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>0.99990290403366</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="3"/>
+        <v>0.83615819209039499</v>
+      </c>
+      <c r="J119">
+        <v>83.6158192090395</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>1.5296449661254801</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="3"/>
+        <v>0.84579594549684201</v>
+      </c>
+      <c r="J120">
+        <v>84.579594549684202</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>1.5386888980865401</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="3"/>
+        <v>0.86640079760717803</v>
+      </c>
+      <c r="J121">
+        <v>86.640079760717796</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>1.8838095664978001</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="3"/>
+        <v>0.82984380192755003</v>
+      </c>
+      <c r="J122">
+        <v>82.984380192754998</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>0.349714875221252</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="3"/>
+        <v>0.870056497175141</v>
+      </c>
+      <c r="J123">
+        <v>87.005649717514103</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>0.95781326293945301</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="3"/>
+        <v>0.88102359587902901</v>
+      </c>
+      <c r="J124">
+        <v>88.102359587902896</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>1.07058525085449</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="3"/>
+        <v>0.89066134928547702</v>
+      </c>
+      <c r="J125">
+        <v>89.066134928547697</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>0.30357992649078303</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="3"/>
+        <v>0.89830508474576209</v>
+      </c>
+      <c r="J126">
+        <v>89.830508474576206</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>0.89925187826156605</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="3"/>
+        <v>0.91193087404453299</v>
+      </c>
+      <c r="J127">
+        <v>91.193087404453294</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>0.43089228868484403</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="3"/>
+        <v>0.91591890993685598</v>
+      </c>
+      <c r="J128">
+        <v>91.591890993685595</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>2.3205256462097101</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="3"/>
+        <v>0.91359255566633391</v>
+      </c>
+      <c r="J129">
+        <v>91.359255566633394</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>0.64761668443679798</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="3"/>
+        <v>0.93353273512794899</v>
+      </c>
+      <c r="J130">
+        <v>93.3532735127949</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>0.62145078182220403</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="3"/>
+        <v>0.93220338983050799</v>
+      </c>
+      <c r="J131">
+        <v>93.220338983050794</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>9.3753829598426805E-2</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="3"/>
+        <v>0.94383516118311706</v>
+      </c>
+      <c r="J132">
+        <v>94.383516118311704</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>0.24536594748497001</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="3"/>
+        <v>0.943170488534396</v>
+      </c>
+      <c r="J133">
+        <v>94.317048853439601</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>0.32395708560943598</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="3"/>
+        <v>0.94948487869724107</v>
+      </c>
+      <c r="J134">
+        <v>94.948487869724104</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>0.75453913211822499</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="3"/>
+        <v>0.95613160518444607</v>
+      </c>
+      <c r="J135">
+        <v>95.613160518444602</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>0.86060225963592496</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="3"/>
+        <v>0.95513459621136509</v>
+      </c>
+      <c r="J136">
+        <v>95.513459621136505</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>1.91934382915496</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="3"/>
+        <v>0.94250581588567606</v>
+      </c>
+      <c r="J137">
+        <v>94.250581588567599</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>6.1530649662017801E-2</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="3"/>
+        <v>0.96111665004985003</v>
+      </c>
+      <c r="J138">
+        <v>96.111665004984999</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>0.41418412327766402</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="3"/>
+        <v>0.96643403123961413</v>
+      </c>
+      <c r="J139">
+        <v>96.643403123961406</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>0.108395598828792</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="3"/>
+        <v>0.96410767696909205</v>
+      </c>
+      <c r="J140">
+        <v>96.410767696909204</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>0.25019952654838501</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="3"/>
+        <v>0.96942505815885593</v>
+      </c>
+      <c r="J141">
+        <v>96.942505815885596</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>0.68283426761627197</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="3"/>
+        <v>0.96842804918577596</v>
+      </c>
+      <c r="J142">
+        <v>96.842804918577599</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>3.8233324885368299E-2</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="3"/>
+        <v>0.97673645729478198</v>
+      </c>
+      <c r="J143">
+        <v>97.673645729478196</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>0.58149236440658503</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="3"/>
+        <v>0.97706879361914212</v>
+      </c>
+      <c r="J144">
+        <v>97.706879361914204</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>0.80760490894317605</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="3"/>
+        <v>0.97274842140245898</v>
+      </c>
+      <c r="J145">
+        <v>97.274842140245894</v>
+      </c>
+    </row>
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>1.38483801856637E-2</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="3"/>
+        <v>0.98138916583582503</v>
+      </c>
+      <c r="J146">
+        <v>98.1389165835825</v>
+      </c>
+    </row>
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>0.117086164653301</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="3"/>
+        <v>0.982386174808906</v>
+      </c>
+      <c r="J147">
+        <v>98.238617480890596</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>3.4128781408071501E-3</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="3"/>
+        <v>0.97706879361914212</v>
+      </c>
+      <c r="J148">
+        <v>97.706879361914204</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>2.0258340984582901E-2</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="3"/>
+        <v>0.979727484214024</v>
+      </c>
+      <c r="J149">
+        <v>97.9727484214024</v>
+      </c>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>8.7664604187011705E-2</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="3"/>
+        <v>0.98138916583582503</v>
+      </c>
+      <c r="J150">
+        <v>98.1389165835825</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>9.8327994346618597E-2</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="3"/>
+        <v>0.98438019275506805</v>
+      </c>
+      <c r="J151">
+        <v>98.438019275506804</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>0.133800894021987</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="3"/>
+        <v>0.98870056497175096</v>
+      </c>
+      <c r="J152">
+        <v>98.870056497175099</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>1.3165032863616899</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="3"/>
+        <v>0.982386174808906</v>
+      </c>
+      <c r="J153">
+        <v>98.238617480890596</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>2.3214437533169901E-4</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="3"/>
+        <v>0.98836822864739104</v>
+      </c>
+      <c r="J154">
+        <v>98.836822864739105</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>0.108753450214862</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="3"/>
+        <v>0.98969757394483193</v>
+      </c>
+      <c r="J155">
+        <v>98.969757394483196</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>8.0787003040313707E-2</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="3"/>
+        <v>0.98870056497175096</v>
+      </c>
+      <c r="J156">
+        <v>98.870056497175099</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>1.15643609315156E-2</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="3"/>
+        <v>0.9906945829179119</v>
+      </c>
+      <c r="J157">
+        <v>99.069458291791193</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>1.1262131854891701E-2</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="3"/>
+        <v>0.9906945829179119</v>
+      </c>
+      <c r="J158">
+        <v>99.069458291791193</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>3.4406969789415598E-3</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="3"/>
+        <v>0.99202392821535401</v>
+      </c>
+      <c r="J159">
+        <v>99.202392821535398</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>0.43103107810020402</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="3"/>
+        <v>0.99302093718843398</v>
+      </c>
+      <c r="J160">
+        <v>99.302093718843395</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>0.84089374542236295</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="3"/>
+        <v>0.98670654702558913</v>
+      </c>
+      <c r="J161">
+        <v>98.670654702558906</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>9.4253662973642297E-3</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="3"/>
+        <v>0.99368560983715504</v>
+      </c>
+      <c r="J162">
+        <v>99.368560983715497</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>2.0886918529868102E-2</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="3"/>
+        <v>0.99268860086407407</v>
+      </c>
+      <c r="J163">
+        <v>99.2688600864074</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>1.6202036931645101E-4</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="3"/>
+        <v>0.99268860086407407</v>
+      </c>
+      <c r="J164">
+        <v>99.2688600864074</v>
+      </c>
+    </row>
+    <row r="165" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>3.8437164039350997E-4</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="3"/>
+        <v>0.99302093718843398</v>
+      </c>
+      <c r="J165">
+        <v>99.302093718843395</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>6.4997590379789396E-4</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="3"/>
+        <v>0.99268860086407407</v>
+      </c>
+      <c r="J166">
+        <v>99.2688600864074</v>
+      </c>
+    </row>
+    <row r="167" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>1.4995229139458301E-4</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="3"/>
+        <v>0.99302093718843398</v>
+      </c>
+      <c r="J167">
+        <v>99.302093718843395</v>
+      </c>
+    </row>
+    <row r="168" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>4.0874781552702102E-4</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="3"/>
+        <v>0.99302093718843398</v>
+      </c>
+      <c r="J168">
+        <v>99.302093718843395</v>
+      </c>
+    </row>
+    <row r="169" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>2.37238597869873</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="3"/>
+        <v>0.99268860086407407</v>
+      </c>
+      <c r="J169">
+        <v>99.2688600864074</v>
+      </c>
+    </row>
+    <row r="170" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>4.7336786985397297E-2</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="3"/>
+        <v>0.99401794616151506</v>
+      </c>
+      <c r="J170">
+        <v>99.401794616151506</v>
+      </c>
+    </row>
+    <row r="171" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>1.58400577493011E-3</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="3"/>
+        <v>0.99401794616151506</v>
+      </c>
+      <c r="J171">
+        <v>99.401794616151506</v>
+      </c>
+    </row>
+    <row r="172" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>1.3751602091360799E-4</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="3"/>
+        <v>0.99401794616151506</v>
+      </c>
+      <c r="J172">
+        <v>99.401794616151506</v>
+      </c>
+    </row>
+    <row r="173" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>7.8177271643653501E-4</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="3"/>
+        <v>0.99401794616151506</v>
+      </c>
+      <c r="J173">
+        <v>99.401794616151506</v>
+      </c>
+    </row>
+    <row r="174" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>2.9532573535107E-4</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="3"/>
+        <v>0.99401794616151506</v>
+      </c>
+      <c r="J174">
+        <v>99.401794616151506</v>
+      </c>
+    </row>
+    <row r="175" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>1.79683498572558E-4</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="3"/>
+        <v>0.99401794616151506</v>
+      </c>
+      <c r="J175">
+        <v>99.401794616151506</v>
+      </c>
+    </row>
+    <row r="176" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>2.27408439968712E-4</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="3"/>
+        <v>0.99401794616151506</v>
+      </c>
+      <c r="J176">
+        <v>99.401794616151506</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
